--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atominos Consulting\Documents\UiPath\Gulf Drug Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784D058E-13B1-4C69-854C-59D9EE58C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4036862-7BBE-4FE4-AEEB-12A0E05DC6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -177,12 +177,18 @@
     <t>Oracle_System_Link</t>
   </si>
   <si>
+    <t>https://ednz-test.fa.em2.oraclecloud.com/</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Navigation_Link</t>
   </si>
   <si>
+    <t>https://ednz-test.fa.em2.oraclecloud.com/fscmUI/faces/FuseWelcome?_adf.ctrl-state=eaxqyv9t5_102&amp;fnd=%3B%3B%3B%3Bfalse%3B256%3B%3B%3B&amp;_afrLoop=53184229720681965</t>
+  </si>
+  <si>
     <t>Input_Sheet_Name</t>
   </si>
   <si>
@@ -219,6 +225,12 @@
     <t>FTP_Username</t>
   </si>
   <si>
+    <t>21985274T1</t>
+  </si>
+  <si>
+    <t>0IRdL@f@1@aI</t>
+  </si>
+  <si>
     <t>FTP_Password</t>
   </si>
   <si>
@@ -312,9 +324,6 @@
     <t>CC_Address</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Missing_Status_path</t>
   </si>
   <si>
@@ -363,6 +372,9 @@
     <t>SAP_Web_link</t>
   </si>
   <si>
+    <t>https://hcm22preview.sapsf.com/</t>
+  </si>
+  <si>
     <t>Company_id</t>
   </si>
   <si>
@@ -393,21 +405,21 @@
     <t>Home_link</t>
   </si>
   <si>
+    <t>https://hcm22preview.sapsf.com/sf/home</t>
+  </si>
+  <si>
+    <t>Today@12345</t>
+  </si>
+  <si>
     <t>HCM_BOT_USER</t>
   </si>
   <si>
+    <t>welcome@1234</t>
+  </si>
+  <si>
     <t>outgoing/</t>
   </si>
   <si>
-    <t>https://hcm22.sapsf.com/login?company=gulfdruges#/login</t>
-  </si>
-  <si>
-    <t>SAP_BOT_USER</t>
-  </si>
-  <si>
-    <t>Welcome@786</t>
-  </si>
-  <si>
     <t>hr_bot@gulfdrug.com</t>
   </si>
   <si>
@@ -420,21 +432,15 @@
     <t>Invalid or Duplicate Data Found on Pending worker import</t>
   </si>
   <si>
+    <t>Pending Worker Import Process Completed</t>
+  </si>
+  <si>
     <t>One or More Required Fields are Missing on Pending Worker Import</t>
   </si>
   <si>
     <t>System Exception on Pending Worker Import</t>
   </si>
   <si>
-    <t>Pending Worker Import Process Completed</t>
-  </si>
-  <si>
-    <t>https://hcm22.sapsf.com/sf/home?bplte_company=gulfdruges&amp;_s.crb=Y4He7wR%252b2s3GihPpFCBY0EY89SF9YOPSKXtTO6TLQSo%253d</t>
-  </si>
-  <si>
-    <t>https://ednz.fa.em2.oraclecloud.com/fscmUI/faces/FuseWelcome?_adf.ctrl-state=7tu6a8j61_5&amp;fnd=%3B%3B%3B%3Bfalse%3B256%3B%3B%3B&amp;_afrLoop=7489790980241828</t>
-  </si>
-  <si>
     <t>C:\Users\Atominos Consulting\Documents\UiPath\Gulf Drug Process\Data\Logs\Process Log\</t>
   </si>
   <si>
@@ -475,15 +481,6 @@
   </si>
   <si>
     <t>C:\Users\Atominos Consulting\Documents\UiPath\Gulf Drug Process\Data\Output\Already_Exist\</t>
-  </si>
-  <si>
-    <t>21985274T1</t>
-  </si>
-  <si>
-    <t>0IRdL@f@1@aI</t>
-  </si>
-  <si>
-    <t>https://ednz-test.fa.em2.oraclecloud.com/</t>
   </si>
 </sst>
 </file>
@@ -922,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1000,122 +997,120 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B12"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B18" s="11">
         <v>25</v>
@@ -1124,10 +1119,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -1136,16 +1131,16 @@
         <v>45</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -1154,97 +1149,97 @@
         <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -1259,10 +1254,10 @@
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -1271,239 +1266,239 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="B61" s="14">
+        <v>2500</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
